--- a/files/lci_spacers.xlsx
+++ b/files/lci_spacers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA_Repo\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD5236-1885-4E2A-BB1E-0FEDD800DD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40AE7F-E525-4B09-A2A5-B579C27DCFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="818" activeTab="1" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="818" firstSheet="5" activeTab="13" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="thermally_broken_alu_air" sheetId="52" r:id="rId11"/>
     <sheet name="thermally_broken_alu_krypton" sheetId="50" r:id="rId12"/>
     <sheet name="thermally_broken_alu_xenon" sheetId="51" r:id="rId13"/>
+    <sheet name="wo_spacer" sheetId="53" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="215">
   <si>
     <t>skip</t>
   </si>
@@ -441,9 +442,6 @@
     <t>market group for heat, district or industrial, other than natural gas</t>
   </si>
   <si>
-    <t>10840003e8bb6cf79761ed3383f13bdc</t>
-  </si>
-  <si>
     <t>market for chemical, organic</t>
   </si>
   <si>
@@ -682,6 +680,18 @@
   </si>
   <si>
     <t>be_production_dg_thermally_broken_alu_air</t>
+  </si>
+  <si>
+    <t>8f2fe6e6fc9a29e76ac842a0a477d2a2</t>
+  </si>
+  <si>
+    <t>double glazing production, without spacer, argon</t>
+  </si>
+  <si>
+    <t>be_production_dg_wo_spacer_arg</t>
+  </si>
+  <si>
+    <t>production_dg_wo_spacer_argon</t>
   </si>
 </sst>
 </file>
@@ -821,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -895,6 +905,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1380,11 +1393,11 @@
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1396,11 +1409,11 @@
       <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
       <c r="G25" t="s">
         <v>70</v>
       </c>
@@ -1537,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0D2615-437F-4EC6-A4DB-6DF353E87BD6}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -1596,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -1707,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -1737,7 +1750,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -1752,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -1782,7 +1795,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -2201,7 +2214,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="17">
         <v>1</v>
@@ -2210,7 +2223,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>31</v>
@@ -2240,7 +2253,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O22" s="22"/>
     </row>
@@ -2337,6 +2350,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2381,7 +2395,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -2403,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -2514,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -2544,7 +2558,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2558,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -2588,7 +2602,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2959,7 +2973,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="17">
         <v>1</v>
@@ -2968,7 +2982,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>31</v>
@@ -2998,7 +3012,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O21" s="22"/>
     </row>
@@ -3139,7 +3153,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -3161,7 +3175,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -3272,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -3302,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3316,7 +3330,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -3346,12 +3360,12 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="21">
         <f>0.00075*(B12+B11)</f>
@@ -3391,10 +3405,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3765,7 +3779,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="17">
         <v>1</v>
@@ -3774,7 +3788,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>31</v>
@@ -3804,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O22" s="22"/>
     </row>
@@ -3945,7 +3959,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -3967,7 +3981,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -4078,7 +4092,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -4108,7 +4122,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4122,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -4152,12 +4166,12 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="21">
         <f>0.00075*(B12+B11)</f>
@@ -4197,10 +4211,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4571,7 +4585,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="17">
         <v>1</v>
@@ -4580,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>31</v>
@@ -4610,7 +4624,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O22" s="22"/>
     </row>
@@ -4707,6 +4721,566 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1C0AA4-0B10-4B66-8BB8-AF921BB03436}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="13" width="18.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="24">
+        <v>2.3913600000000001E-4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="21">
+        <v>3.2094</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17">
+        <v>-1.427</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0.30335622624234998</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="21">
+        <v>-9.9639999999999993E-4</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="21">
+        <v>-1.3556999999999999</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4714,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4293C163-EFD4-4631-8B52-334277E2EA11}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4753,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>7</v>
@@ -4801,7 +5375,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>45</v>
@@ -4823,7 +5397,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>43</v>
@@ -4934,7 +5508,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>31</v>
@@ -4964,7 +5538,7 @@
         <v>31</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -4979,7 +5553,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>31</v>
@@ -5009,7 +5583,7 @@
         <v>31</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -5379,7 +5953,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="17">
         <v>1</v>
@@ -5388,7 +5962,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>31</v>
@@ -5418,7 +5992,7 @@
         <v>31</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O24" s="22"/>
     </row>
@@ -5522,7 +6096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D059F17-7793-4AC4-869F-96AE62C6D004}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5557,7 +6133,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -5579,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -5690,7 +6266,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -5720,7 +6296,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -5734,7 +6310,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -5764,7 +6340,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -6180,7 +6756,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="17">
         <v>1</v>
@@ -6189,7 +6765,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>31</v>
@@ -6219,7 +6795,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O22" s="22"/>
     </row>
@@ -6360,7 +6936,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -6382,7 +6958,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -6493,7 +7069,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -6523,7 +7099,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -6538,7 +7114,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -6568,7 +7144,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -6985,7 +7561,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="17">
         <v>1</v>
@@ -6994,7 +7570,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>31</v>
@@ -7024,7 +7600,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O22" s="22"/>
     </row>
@@ -7129,7 +7705,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7165,7 +7741,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -7187,7 +7763,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -7298,7 +7874,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -7328,7 +7904,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -7343,7 +7919,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -7373,7 +7949,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -7520,7 +8096,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="21">
         <v>0.3</v>
@@ -7559,10 +8135,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -7723,7 +8299,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>34</v>
@@ -7747,7 +8323,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="O20" s="28" t="s">
         <v>126</v>
@@ -7755,7 +8331,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <f>0.03*0.15</f>
@@ -7795,7 +8371,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O21" s="28" t="s">
         <v>126</v>
@@ -7803,7 +8379,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22">
         <f>2.3*0.15</f>
@@ -7843,7 +8419,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O22" s="28" t="s">
         <v>126</v>
@@ -7851,7 +8427,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23">
         <f>-0.00194430056428492*0.15</f>
@@ -7867,7 +8443,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>34</v>
@@ -7891,7 +8467,7 @@
         <v>31</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>126</v>
@@ -7899,7 +8475,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24">
         <f>-0.229055699435715*0.15</f>
@@ -7915,7 +8491,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>34</v>
@@ -7939,7 +8515,7 @@
         <v>31</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O24" s="28" t="s">
         <v>126</v>
@@ -7947,7 +8523,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25">
         <v>7.0000000000000007E-2</v>
@@ -7986,10 +8562,10 @@
         <v>31</v>
       </c>
       <c r="N25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="O25" s="28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8038,20 +8614,20 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27">
         <f>756*0.15</f>
         <v>113.39999999999999</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>96</v>
@@ -8078,7 +8654,7 @@
         <v>31</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>126</v>
@@ -8086,20 +8662,20 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <f>3.14*0.15</f>
         <v>0.47099999999999997</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>96</v>
@@ -8126,7 +8702,7 @@
         <v>31</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O28" s="28" t="s">
         <v>126</v>
@@ -8222,7 +8798,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="17">
         <v>1</v>
@@ -8231,7 +8807,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>31</v>
@@ -8261,7 +8837,7 @@
         <v>31</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O31" s="22"/>
     </row>
@@ -8365,7 +8941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44D336C-9AF8-49E8-821D-663D34B66694}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8400,7 +8978,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -8422,7 +9000,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -8533,7 +9111,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -8563,7 +9141,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -8578,7 +9156,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -8608,7 +9186,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -8703,7 +9281,7 @@
         <v>116</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8750,12 +9328,12 @@
         <v>80</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" s="21">
         <v>0.3</v>
@@ -8794,10 +9372,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8934,7 +9512,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="17">
         <v>1</v>
@@ -8943,7 +9521,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>31</v>
@@ -8973,7 +9551,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O20" s="22"/>
     </row>
@@ -9114,7 +9692,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -9136,7 +9714,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -9247,7 +9825,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -9277,7 +9855,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -9292,7 +9870,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -9322,7 +9900,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -9464,12 +10042,12 @@
         <v>116</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="21">
         <v>0.3</v>
@@ -9508,10 +10086,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -9692,7 +10270,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="17">
         <v>1</v>
@@ -9701,7 +10279,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>31</v>
@@ -9731,7 +10309,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O21" s="22"/>
     </row>
@@ -9836,7 +10414,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9872,7 +10450,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -9894,7 +10472,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -10005,7 +10583,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -10035,7 +10613,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -10050,7 +10628,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -10080,7 +10658,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -10175,7 +10753,7 @@
         <v>91</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -10222,12 +10800,12 @@
         <v>116</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="21">
         <v>0.6</v>
@@ -10266,15 +10844,15 @@
         <v>31</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="21">
         <v>0.05</v>
@@ -10313,15 +10891,15 @@
         <v>31</v>
       </c>
       <c r="N17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18">
         <v>7.0000000000000007E-2</v>
@@ -10360,10 +10938,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10544,7 +11122,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="17">
         <v>1</v>
@@ -10553,7 +11131,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>31</v>
@@ -10583,7 +11161,7 @@
         <v>31</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O23" s="22"/>
     </row>
@@ -10688,7 +11266,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A11" sqref="A11:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10724,7 +11302,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -10746,7 +11324,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>43</v>
@@ -10857,7 +11435,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>31</v>
@@ -10887,7 +11465,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -10902,7 +11480,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -10932,7 +11510,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11027,7 +11605,7 @@
         <v>91</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -11074,7 +11652,7 @@
         <v>116</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -11121,12 +11699,12 @@
         <v>116</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="21">
         <v>0.05</v>
@@ -11165,15 +11743,15 @@
         <v>31</v>
       </c>
       <c r="N17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18">
         <v>7.0000000000000007E-2</v>
@@ -11212,10 +11790,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -11396,7 +11974,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="17">
         <v>1</v>
@@ -11405,7 +11983,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>31</v>
@@ -11435,7 +12013,7 @@
         <v>31</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O23" s="22"/>
     </row>

--- a/files/lci_spacers.xlsx
+++ b/files/lci_spacers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40AE7F-E525-4B09-A2A5-B579C27DCFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82446477-D364-4F4C-8260-82F92A433A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="818" firstSheet="5" activeTab="13" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
+    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="818" firstSheet="5" activeTab="13" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="215">
   <si>
     <t>skip</t>
   </si>
@@ -4726,10 +4726,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1C0AA4-0B10-4B66-8BB8-AF921BB03436}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,272 +5011,49 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="21">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>64</v>
+      <c r="A14" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="24">
-        <v>2.3913600000000001E-4</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="21">
-        <v>3.2094</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="F14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="G14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H14" s="17">
         <v>2</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I14" s="17">
         <v>-1.427</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J14" s="17">
         <v>0.30335622624234998</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="17" t="s">
+      <c r="K14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="21">
-        <v>-9.9639999999999993E-4</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="21">
-        <v>-1.3556999999999999</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="O14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
